--- a/rosters/2023/Chicago/Chicago.xlsx
+++ b/rosters/2023/Chicago/Chicago.xlsx
@@ -52,30 +52,30 @@
     <t>Patrick Williams</t>
   </si>
   <si>
+    <t>Ayo Dosunmu</t>
+  </si>
+  <si>
     <t>DeMar DeRozan</t>
   </si>
   <si>
-    <t>Ayo Dosunmu</t>
+    <t>Zach LaVine</t>
   </si>
   <si>
     <t>Goran Dragić</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
+    <t>Coby White</t>
   </si>
   <si>
     <t>Alex Caruso</t>
   </si>
   <si>
-    <t>Coby White</t>
+    <t>Derrick Jones Jr.</t>
   </si>
   <si>
     <t>Andre Drummond</t>
   </si>
   <si>
-    <t>Derrick Jones Jr.</t>
-  </si>
-  <si>
     <t>Javonte Green</t>
   </si>
   <si>
@@ -100,12 +100,12 @@
     <t>PF</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -115,12 +115,12 @@
     <t>6-7</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-6</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -136,30 +136,30 @@
     <t>August 26, 2001</t>
   </si>
   <si>
+    <t>January 17, 2000</t>
+  </si>
+  <si>
     <t>August 7, 1989</t>
   </si>
   <si>
-    <t>January 17, 2000</t>
+    <t>March 10, 1995</t>
   </si>
   <si>
     <t>May 6, 1986</t>
   </si>
   <si>
-    <t>March 10, 1995</t>
+    <t>February 16, 2000</t>
   </si>
   <si>
     <t>February 28, 1994</t>
   </si>
   <si>
-    <t>February 16, 2000</t>
+    <t>February 15, 1997</t>
   </si>
   <si>
     <t>August 10, 1993</t>
   </si>
   <si>
-    <t>February 15, 1997</t>
-  </si>
-  <si>
     <t>July 23, 1993</t>
   </si>
   <si>
@@ -196,30 +196,30 @@
     <t>2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>1</t>
+    <t>8</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>8</t>
+    <t>3</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>3</t>
+    <t>6</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -235,18 +235,18 @@
     <t>UCLA</t>
   </si>
   <si>
+    <t>UNC</t>
+  </si>
+  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
-    <t>UNC</t>
+    <t>UNLV</t>
   </si>
   <si>
     <t>UConn</t>
   </si>
   <si>
-    <t>UNLV</t>
-  </si>
-  <si>
     <t>Radford</t>
   </si>
   <si>
@@ -259,28 +259,28 @@
     <t>https://www.basketball-reference.com/players/w/willipa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/d/dosunay01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/derozde01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/d/dosunay01.html</t>
+    <t>https://www.basketball-reference.com/players/l/lavinza01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/dragigo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/lavinza01.html</t>
+    <t>https://www.basketball-reference.com/players/w/whiteco01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/carusal01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/whiteco01.html</t>
+    <t>https://www.basketball-reference.com/players/j/jonesde02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/drumman01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/jonesde02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/greenja02.html</t>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -794,7 +794,7 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
@@ -806,7 +806,7 @@
         <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>81</v>
@@ -817,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -829,7 +829,7 @@
         <v>34</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
@@ -841,7 +841,7 @@
         <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>82</v>
@@ -852,28 +852,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
         <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>83</v>
@@ -884,31 +887,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
         <v>63</v>
-      </c>
-      <c r="J7" t="s">
-        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>84</v>
@@ -919,19 +919,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
@@ -954,19 +954,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -989,19 +989,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1024,19 +1024,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="G11" t="s">
         <v>47</v>
@@ -1065,7 +1065,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -1080,7 +1080,7 @@
         <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
         <v>77</v>
@@ -1100,7 +1100,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -1150,10 +1150,10 @@
         <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>91</v>
@@ -1170,10 +1170,10 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>220</v>
@@ -1185,7 +1185,7 @@
         <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
         <v>71</v>
@@ -1220,7 +1220,7 @@
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>93</v>
@@ -1237,7 +1237,7 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>190</v>
@@ -1249,7 +1249,7 @@
         <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
         <v>72</v>

--- a/rosters/2023/Chicago/Chicago.xlsx
+++ b/rosters/2023/Chicago/Chicago.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
   <si>
     <t>No.</t>
   </si>
@@ -55,27 +55,27 @@
     <t>Ayo Dosunmu</t>
   </si>
   <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
     <t>DeMar DeRozan</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
+    <t>Coby White</t>
   </si>
   <si>
     <t>Goran Dragić</t>
   </si>
   <si>
-    <t>Coby White</t>
-  </si>
-  <si>
     <t>Alex Caruso</t>
   </si>
   <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
     <t>Derrick Jones Jr.</t>
   </si>
   <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
     <t>Javonte Green</t>
   </si>
   <si>
@@ -91,6 +91,9 @@
     <t>Marko Simonovic</t>
   </si>
   <si>
+    <t>Carlik Jones (TW)</t>
+  </si>
+  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>6-11</t>
   </si>
   <si>
+    <t>6-1</t>
+  </si>
+  <si>
     <t>October 24, 1990</t>
   </si>
   <si>
@@ -139,27 +145,27 @@
     <t>January 17, 2000</t>
   </si>
   <si>
+    <t>March 10, 1995</t>
+  </si>
+  <si>
     <t>August 7, 1989</t>
   </si>
   <si>
-    <t>March 10, 1995</t>
+    <t>February 16, 2000</t>
   </si>
   <si>
     <t>May 6, 1986</t>
   </si>
   <si>
-    <t>February 16, 2000</t>
-  </si>
-  <si>
     <t>February 28, 1994</t>
   </si>
   <si>
+    <t>August 10, 1993</t>
+  </si>
+  <si>
     <t>February 15, 1997</t>
   </si>
   <si>
-    <t>August 10, 1993</t>
-  </si>
-  <si>
     <t>July 23, 1993</t>
   </si>
   <si>
@@ -175,6 +181,9 @@
     <t>October 15, 1999</t>
   </si>
   <si>
+    <t>December 23, 1997</t>
+  </si>
+  <si>
     <t>October 27, 1997</t>
   </si>
   <si>
@@ -199,27 +208,27 @@
     <t>1</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>8</t>
+    <t>3</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -241,18 +250,21 @@
     <t>Texas A&amp;M</t>
   </si>
   <si>
+    <t>UConn</t>
+  </si>
+  <si>
     <t>UNLV</t>
   </si>
   <si>
-    <t>UConn</t>
-  </si>
-  <si>
     <t>Radford</t>
   </si>
   <si>
     <t>Arizona</t>
   </si>
   <si>
+    <t>Radford, Louisville</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/v/vucevni01.html</t>
   </si>
   <si>
@@ -262,27 +274,27 @@
     <t>https://www.basketball-reference.com/players/d/dosunay01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/l/lavinza01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/derozde01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/lavinza01.html</t>
+    <t>https://www.basketball-reference.com/players/w/whiteco01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/dragigo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/whiteco01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/carusal01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/d/drumman01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/jonesde02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/d/drumman01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/greenja02.html</t>
   </si>
   <si>
@@ -296,6 +308,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/simonma01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/jonesca03.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/balllo01.html</t>
@@ -669,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,28 +733,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -753,28 +768,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -788,28 +803,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -817,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -829,22 +844,22 @@
         <v>34</v>
       </c>
       <c r="F5">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -852,34 +867,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
         <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -887,31 +902,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -919,34 +937,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -960,28 +975,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>186</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -989,34 +1004,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1024,34 +1039,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1065,28 +1080,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>205</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1100,28 +1115,28 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>195</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1135,28 +1150,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14">
         <v>248</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1170,28 +1185,28 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>220</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1205,57 +1220,92 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>216</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F17">
+        <v>185</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18">
         <v>190</v>
       </c>
-      <c r="G17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>94</v>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1276,6 +1326,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Chicago/Chicago.xlsx
+++ b/rosters/2023/Chicago/Chicago.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>No.</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Coby White</t>
   </si>
   <si>
-    <t>Goran Dragić</t>
-  </si>
-  <si>
     <t>Alex Caruso</t>
   </si>
   <si>
@@ -82,21 +79,24 @@
     <t>Dalen Terry</t>
   </si>
   <si>
-    <t>Tony Bradley</t>
-  </si>
-  <si>
-    <t>Malcolm Hill (TW)</t>
+    <t>Patrick Beverley</t>
   </si>
   <si>
     <t>Marko Simonovic</t>
   </si>
   <si>
-    <t>Carlik Jones (TW)</t>
+    <t>Terry Taylor (TW)</t>
+  </si>
+  <si>
+    <t>Carlik Jones</t>
   </si>
   <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
+    <t>Justin Lewis (TW)</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -124,18 +124,15 @@
     <t>6-6</t>
   </si>
   <si>
-    <t>6-3</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
+    <t>6-1</t>
+  </si>
+  <si>
     <t>6-11</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
     <t>October 24, 1990</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>February 16, 2000</t>
   </si>
   <si>
-    <t>May 6, 1986</t>
-  </si>
-  <si>
     <t>February 28, 1994</t>
   </si>
   <si>
@@ -172,30 +166,30 @@
     <t>July 12, 2002</t>
   </si>
   <si>
-    <t>January 8, 1998</t>
-  </si>
-  <si>
-    <t>October 26, 1995</t>
+    <t>July 12, 1988</t>
   </si>
   <si>
     <t>October 15, 1999</t>
   </si>
   <si>
+    <t>September 23, 1999</t>
+  </si>
+  <si>
     <t>December 23, 1997</t>
   </si>
   <si>
     <t>October 27, 1997</t>
   </si>
   <si>
+    <t>April 12, 2002</t>
+  </si>
+  <si>
     <t>ch</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
-    <t>si</t>
-  </si>
-  <si>
     <t>me</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -262,9 +253,18 @@
     <t>Arizona</t>
   </si>
   <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Austin Peay State University</t>
+  </si>
+  <si>
     <t>Radford, Louisville</t>
   </si>
   <si>
+    <t>Marquette</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/v/vucevni01.html</t>
   </si>
   <si>
@@ -283,9 +283,6 @@
     <t>https://www.basketball-reference.com/players/w/whiteco01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/d/dragigo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/carusal01.html</t>
   </si>
   <si>
@@ -301,19 +298,22 @@
     <t>https://www.basketball-reference.com/players/t/terryda01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bradlto01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/hillma01.html</t>
+    <t>https://www.basketball-reference.com/players/b/beverpa01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/simonma01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/t/taylote01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/jonesca03.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/balllo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/l/lewisju02.html</t>
   </si>
 </sst>
 </file>
@@ -742,16 +742,16 @@
         <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>83</v>
@@ -777,16 +777,16 @@
         <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>84</v>
@@ -812,16 +812,16 @@
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>85</v>
@@ -847,16 +847,16 @@
         <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>86</v>
@@ -882,16 +882,16 @@
         <v>220</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>87</v>
@@ -917,16 +917,16 @@
         <v>195</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>88</v>
@@ -937,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -949,16 +949,19 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>89</v>
@@ -969,31 +972,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>90</v>
@@ -1004,31 +1007,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>91</v>
@@ -1039,31 +1042,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>92</v>
@@ -1074,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1083,22 +1086,22 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>93</v>
@@ -1109,31 +1112,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>94</v>
@@ -1144,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1153,22 +1156,19 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>95</v>
@@ -1179,31 +1179,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>96</v>
@@ -1214,28 +1214,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>81</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>97</v>
@@ -1245,9 +1248,6 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>22</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -1255,22 +1255,22 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>98</v>
@@ -1284,25 +1284,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
         <v>68</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>99</v>

--- a/rosters/2023/Chicago/Chicago.xlsx
+++ b/rosters/2023/Chicago/Chicago.xlsx
@@ -64,33 +64,33 @@
     <t>Coby White</t>
   </si>
   <si>
+    <t>Andre Drummond</t>
+  </si>
+  <si>
     <t>Alex Caruso</t>
   </si>
   <si>
-    <t>Andre Drummond</t>
-  </si>
-  <si>
     <t>Derrick Jones Jr.</t>
   </si>
   <si>
+    <t>Dalen Terry</t>
+  </si>
+  <si>
     <t>Javonte Green</t>
   </si>
   <si>
-    <t>Dalen Terry</t>
-  </si>
-  <si>
     <t>Patrick Beverley</t>
   </si>
   <si>
+    <t>Carlik Jones</t>
+  </si>
+  <si>
     <t>Marko Simonovic</t>
   </si>
   <si>
     <t>Terry Taylor (TW)</t>
   </si>
   <si>
-    <t>Carlik Jones</t>
-  </si>
-  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
@@ -151,33 +151,33 @@
     <t>February 16, 2000</t>
   </si>
   <si>
+    <t>August 10, 1993</t>
+  </si>
+  <si>
     <t>February 28, 1994</t>
   </si>
   <si>
-    <t>August 10, 1993</t>
-  </si>
-  <si>
     <t>February 15, 1997</t>
   </si>
   <si>
+    <t>July 12, 2002</t>
+  </si>
+  <si>
     <t>July 23, 1993</t>
   </si>
   <si>
-    <t>July 12, 2002</t>
-  </si>
-  <si>
     <t>July 12, 1988</t>
   </si>
   <si>
+    <t>December 23, 1997</t>
+  </si>
+  <si>
     <t>October 15, 1999</t>
   </si>
   <si>
     <t>September 23, 1999</t>
   </si>
   <si>
-    <t>December 23, 1997</t>
-  </si>
-  <si>
     <t>October 27, 1997</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>3</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -238,30 +238,30 @@
     <t>UNC</t>
   </si>
   <si>
+    <t>UConn</t>
+  </si>
+  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
-    <t>UConn</t>
-  </si>
-  <si>
     <t>UNLV</t>
   </si>
   <si>
+    <t>Arizona</t>
+  </si>
+  <si>
     <t>Radford</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
+    <t>Radford, Louisville</t>
+  </si>
+  <si>
     <t>Austin Peay State University</t>
   </si>
   <si>
-    <t>Radford, Louisville</t>
-  </si>
-  <si>
     <t>Marquette</t>
   </si>
   <si>
@@ -283,31 +283,31 @@
     <t>https://www.basketball-reference.com/players/w/whiteco01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/d/drumman01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/carusal01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/d/drumman01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/jonesde02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/t/terryda01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/g/greenja02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/t/terryda01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/beverpa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/j/jonesca03.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/simonma01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/t/taylote01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/jonesca03.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/balllo01.html</t>
@@ -937,19 +937,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -972,19 +972,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>279</v>
+        <v>186</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1042,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1051,10 +1051,10 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
@@ -1063,7 +1063,7 @@
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
         <v>77</v>
@@ -1077,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1086,10 +1086,10 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -1098,7 +1098,7 @@
         <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -1133,7 +1133,7 @@
         <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -1147,28 +1147,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
         <v>61</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>95</v>
@@ -1179,31 +1182,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F15">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
         <v>61</v>
-      </c>
-      <c r="J15" t="s">
-        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>96</v>
@@ -1214,19 +1214,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="G16" t="s">
         <v>53</v>
@@ -1267,7 +1267,7 @@
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
         <v>72</v>
